--- a/biology/Botanique/Sarracenia_minor/Sarracenia_minor.xlsx
+++ b/biology/Botanique/Sarracenia_minor/Sarracenia_minor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarracenia minor est une espèce de plantes à fleurs de la famille des Sarraceniaceae. C'est une plante carnivore dont la répartition naturelle s’étend de la plaine côtière du sud-est de la Caroline du Nord à la péninsule et à la moitié sud de la Floride. On a récemment trouvé des populations dans le comté d’Okeechobee, ce qui fait de Sarracenia minor le membre du genre Sarracenia qui pousse le plus au sud.
 Introduite en France en 1803, la plante fut décrite par Walter en 1788. L'épithète spécifique minor vient du latin et signifie « plus petit, moindre », allusion à la petite taille de la plante.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace, terrestre, rhizomateuse, herbacée, dont il existe plusieurs formes et variétés. Sa taille varie entre 25 et 50 cm.
 Feuilles : Elles sont radicales vertes, taches blanches translucides sur la partie supérieure des urnes. Les proies sont piégées par les urnes.
@@ -552,21 +566,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa culture est identique aux autres sarracénias à quelques détails près. Le rhizome semble apprécier d'être enterré contrairement aux autres sarracenias. Cette particularité permet aussi de la multiplier facilement en faisant de petites entailles sur le rhizome.
 On obtient alors de nouvelles petites plantes assez rapidement. Les nouvelles feuilles d'une saison à l'autre partent toujours d'un nouveau point du rhizome et pas à la suite des anciennes. Cela explique sans doute cette facilité à faire de nouvelles plantules à partir d'une simple entaille recouverte de sphaigne.
 Après quelques années de culture il apparaît qu'elle aime avoir beaucoup plus d'eau que la plupart des autres sarracénias.
-Substrat
-70 % de tourbe blonde + 10 % de sable + 10 % de vermiculite + 10 % de perlite.
-Température
-Entre 5 et 15 °C l'hiver et de 20 à 40 °C l'été. On peut l'installer en tourbière extérieure, car elle résiste à des températures de -12 °C.
-Arrosage
-Maintenir le sol humide toute l’année au moyen de la présence d’une soucoupe sous le pot, réduire en hiver.
-Exposition
-Le plein soleil lui convient parfaitement.
-Parasites et maladies
-Puceron, cochenille, botrytis
 </t>
         </is>
       </c>
@@ -592,12 +598,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Multiplication</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Par semis : Des graines peuvent mettre une année pour germer. Des graines fraîchement récoltées (septembre) et semées aussitôt en mini-serre germent dès le printemps. Un semis sur coton humide et tenu au chaud demande environ un mois. La transplantation à partir de culture sur coton exige quelques précautions afin de ne pas casser les radicelles.
+          <t>Substrat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">70 % de tourbe blonde + 10 % de sable + 10 % de vermiculite + 10 % de perlite.
 </t>
         </is>
       </c>
@@ -623,10 +635,193 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 5 et 15 °C l'hiver et de 20 à 40 °C l'été. On peut l'installer en tourbière extérieure, car elle résiste à des températures de -12 °C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarracenia_minor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarracenia_minor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arrosage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maintenir le sol humide toute l’année au moyen de la présence d’une soucoupe sous le pot, réduire en hiver.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarracenia_minor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarracenia_minor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Exposition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plein soleil lui convient parfaitement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sarracenia_minor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarracenia_minor</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Parasites et maladies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Puceron, cochenille, botrytis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sarracenia_minor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarracenia_minor</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par semis : Des graines peuvent mettre une année pour germer. Des graines fraîchement récoltées (septembre) et semées aussitôt en mini-serre germent dès le printemps. Un semis sur coton humide et tenu au chaud demande environ un mois. La transplantation à partir de culture sur coton exige quelques précautions afin de ne pas casser les radicelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sarracenia_minor</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarracenia_minor</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Observations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la majeure partie de son étendue les feuilles avoisinent les 30 cm de haut.
 Les plantes des marais Okefenokee, au sud de la Géorgie, font exception. Là, poussant souvent sur des tapis flottants de sphaigne, les plantes peuvent atteindre une taille étonnante de 90 à 120 cm de haut.
